--- a/tablo1 örneği.xlsx
+++ b/tablo1 örneği.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahin\Documents\GitHub\Ders-Programi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24662C9B-1B60-4AFB-9BD2-1F30FB7626D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A74B84-6CEB-428D-82D3-9C9A8FBB27DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F13F7534-EECA-41F0-B9B3-D247687C06D2}"/>
   </bookViews>
@@ -36,18 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
-  <si>
-    <t>TABLO 1</t>
-  </si>
-  <si>
-    <t>Ders çıktısı</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Prg Çıktı</t>
-  </si>
-  <si>
-    <t>İlişki Değ.</t>
   </si>
   <si>
     <t>0.8</t>
@@ -56,22 +47,13 @@
     <t>0.2</t>
   </si>
   <si>
-    <t>0.24</t>
-  </si>
-  <si>
     <t>0.5</t>
   </si>
   <si>
-    <t>0.3</t>
+    <t>TABLO 1</t>
   </si>
   <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.6</t>
+    <t>Ders çıktısı</t>
   </si>
 </sst>
 </file>
@@ -108,8 +90,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,25 +429,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF866BF-1742-40EE-88E4-081045E53059}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -479,11 +468,8 @@
       <c r="F2">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -502,11 +488,8 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -520,16 +503,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -540,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -548,11 +528,8 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -566,16 +543,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -594,11 +568,8 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -617,11 +588,8 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -640,11 +608,8 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -663,11 +628,8 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -686,11 +648,8 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -709,11 +668,11 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>